--- a/results_it/ターザン_disease_data.xlsx
+++ b/results_it/ターザン_disease_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45328</v>
+        <v>41676</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -6542,6 +6542,216 @@
       </c>
       <c r="E291" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>貯蔵調査</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>収穫日</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>45074</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>5月下旬</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>5月上旬</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>4月下旬</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4月上旬</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3月下旬</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>3月上旬</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2月下旬</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2月上旬</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.0625</v>
       </c>
     </row>
   </sheetData>

--- a/results_it/ターザン_disease_data.xlsx
+++ b/results_it/ターザン_disease_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,11 @@
           <t>incidence</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>days_from_jan1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +489,9 @@
       <c r="E2" t="n">
         <v>0.6</v>
       </c>
+      <c r="F2" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,6 +513,9 @@
       <c r="E3" t="n">
         <v>0.25</v>
       </c>
+      <c r="F3" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -526,6 +537,9 @@
       <c r="E4" t="n">
         <v>0.5625</v>
       </c>
+      <c r="F4" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="E5" t="n">
         <v>0.0625</v>
       </c>
+      <c r="F5" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -568,6 +585,9 @@
       <c r="E6" t="n">
         <v>0.1875</v>
       </c>
+      <c r="F6" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -589,6 +609,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -610,6 +633,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -631,6 +657,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,6 +681,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -673,6 +705,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -694,6 +729,9 @@
       <c r="E12" t="n">
         <v>6.648</v>
       </c>
+      <c r="F12" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -711,6 +749,7 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -732,6 +771,9 @@
       <c r="E14" t="n">
         <v>1.416666666666667</v>
       </c>
+      <c r="F14" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -753,6 +795,9 @@
       <c r="E15" t="n">
         <v>2.208333333333333</v>
       </c>
+      <c r="F15" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -774,6 +819,9 @@
       <c r="E16" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="F16" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -795,6 +843,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -816,6 +867,9 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -837,6 +891,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -858,6 +915,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -879,6 +939,9 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -900,6 +963,9 @@
       <c r="E22" t="n">
         <v>0.2299</v>
       </c>
+      <c r="F22" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -917,6 +983,7 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -938,6 +1005,9 @@
       <c r="E24" t="n">
         <v>0.05555555555555555</v>
       </c>
+      <c r="F24" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -959,6 +1029,9 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
+      <c r="F25" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -980,6 +1053,9 @@
       <c r="E26" t="n">
         <v>0.02777777777777778</v>
       </c>
+      <c r="F26" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1001,6 +1077,9 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1022,6 +1101,9 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1043,6 +1125,9 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
+      <c r="F29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1064,6 +1149,9 @@
       <c r="E30" t="n">
         <v>0.05555555555555555</v>
       </c>
+      <c r="F30" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1085,6 +1173,9 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
+      <c r="F31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1106,6 +1197,9 @@
       <c r="E32" t="n">
         <v>1.964667054940788</v>
       </c>
+      <c r="F32" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1127,6 +1221,9 @@
       <c r="E33" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="F33" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1146,6 +1243,9 @@
         <v>35570</v>
       </c>
       <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1167,6 +1267,9 @@
       <c r="E35" t="n">
         <v>0.375</v>
       </c>
+      <c r="F35" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1188,6 +1291,9 @@
       <c r="E36" t="n">
         <v>0.875</v>
       </c>
+      <c r="F36" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1209,6 +1315,9 @@
       <c r="E37" t="n">
         <v>0.375</v>
       </c>
+      <c r="F37" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1230,6 +1339,9 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
+      <c r="F38" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1251,6 +1363,9 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
+      <c r="F39" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1272,6 +1387,9 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
+      <c r="F40" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1293,6 +1411,9 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
+      <c r="F41" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1314,6 +1435,9 @@
       <c r="E42" t="n">
         <v>7.407</v>
       </c>
+      <c r="F42" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1335,6 +1459,9 @@
       <c r="E43" t="n">
         <v>11.7</v>
       </c>
+      <c r="F43" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1356,6 +1483,9 @@
       <c r="E44" t="n">
         <v>9.050000000000001</v>
       </c>
+      <c r="F44" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1377,6 +1507,9 @@
       <c r="E45" t="n">
         <v>11.65625</v>
       </c>
+      <c r="F45" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1398,6 +1531,9 @@
       <c r="E46" t="n">
         <v>4.625</v>
       </c>
+      <c r="F46" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1419,6 +1555,9 @@
       <c r="E47" t="n">
         <v>1.5625</v>
       </c>
+      <c r="F47" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1440,6 +1579,9 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
+      <c r="F48" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1461,6 +1603,9 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
+      <c r="F49" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1482,6 +1627,9 @@
       <c r="E50" t="n">
         <v>0.0625</v>
       </c>
+      <c r="F50" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1503,6 +1651,9 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
+      <c r="F51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1524,6 +1675,9 @@
       <c r="E52" t="n">
         <v>3.015873015873016</v>
       </c>
+      <c r="F52" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1545,6 +1699,9 @@
       <c r="E53" t="n">
         <v>0.55</v>
       </c>
+      <c r="F53" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1566,6 +1723,9 @@
       <c r="E54" t="n">
         <v>0.28125</v>
       </c>
+      <c r="F54" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1587,6 +1747,9 @@
       <c r="E55" t="n">
         <v>0.5625</v>
       </c>
+      <c r="F55" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1608,6 +1771,9 @@
       <c r="E56" t="n">
         <v>0.59375</v>
       </c>
+      <c r="F56" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1629,6 +1795,9 @@
       <c r="E57" t="n">
         <v>0.125</v>
       </c>
+      <c r="F57" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1650,6 +1819,9 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
+      <c r="F58" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1671,6 +1843,9 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
+      <c r="F59" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1692,6 +1867,9 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
+      <c r="F60" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1713,6 +1891,9 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
+      <c r="F61" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1734,6 +1915,9 @@
       <c r="E62" t="n">
         <v>10.43218056453351</v>
       </c>
+      <c r="F62" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1755,6 +1939,9 @@
       <c r="E63" t="n">
         <v>0.39</v>
       </c>
+      <c r="F63" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1776,6 +1963,9 @@
       <c r="E64" t="n">
         <v>0.6</v>
       </c>
+      <c r="F64" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1797,6 +1987,9 @@
       <c r="E65" t="n">
         <v>0.15</v>
       </c>
+      <c r="F65" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1818,6 +2011,9 @@
       <c r="E66" t="n">
         <v>0.05</v>
       </c>
+      <c r="F66" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1839,6 +2035,9 @@
       <c r="E67" t="n">
         <v>0.025</v>
       </c>
+      <c r="F67" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1860,6 +2059,9 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
+      <c r="F68" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1881,6 +2083,9 @@
       <c r="E69" t="n">
         <v>0</v>
       </c>
+      <c r="F69" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1902,6 +2107,9 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
+      <c r="F70" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1923,6 +2131,9 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
+      <c r="F71" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1944,6 +2155,9 @@
       <c r="E72" t="n">
         <v>1.5625</v>
       </c>
+      <c r="F72" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1965,6 +2179,9 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
+      <c r="F73" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1986,6 +2203,9 @@
       <c r="E74" t="n">
         <v>0.15625</v>
       </c>
+      <c r="F74" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2007,6 +2227,9 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
+      <c r="F75" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2028,6 +2251,9 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
+      <c r="F76" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2049,6 +2275,9 @@
       <c r="E77" t="n">
         <v>0.03125</v>
       </c>
+      <c r="F77" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2070,6 +2299,9 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
+      <c r="F78" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2091,6 +2323,9 @@
       <c r="E79" t="n">
         <v>0.0625</v>
       </c>
+      <c r="F79" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2112,6 +2347,9 @@
       <c r="E80" t="n">
         <v>0.09375</v>
       </c>
+      <c r="F80" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2133,6 +2371,9 @@
       <c r="E81" t="n">
         <v>0.0625</v>
       </c>
+      <c r="F81" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2154,6 +2395,9 @@
       <c r="E82" t="n">
         <v>4.359623471583366</v>
       </c>
+      <c r="F82" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2175,6 +2419,9 @@
       <c r="E83" t="n">
         <v>2.544444444444445</v>
       </c>
+      <c r="F83" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2196,6 +2443,9 @@
       <c r="E84" t="n">
         <v>2.277777777777778</v>
       </c>
+      <c r="F84" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2217,6 +2467,9 @@
       <c r="E85" t="n">
         <v>3.305555555555555</v>
       </c>
+      <c r="F85" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2238,6 +2491,9 @@
       <c r="E86" t="n">
         <v>0.6944444444444444</v>
       </c>
+      <c r="F86" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2259,6 +2515,9 @@
       <c r="E87" t="n">
         <v>0.3055555555555556</v>
       </c>
+      <c r="F87" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2280,6 +2539,9 @@
       <c r="E88" t="n">
         <v>0.05555555555555555</v>
       </c>
+      <c r="F88" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2301,6 +2563,9 @@
       <c r="E89" t="n">
         <v>0.05555555555555555</v>
       </c>
+      <c r="F89" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2322,6 +2587,9 @@
       <c r="E90" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="F90" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2343,6 +2611,9 @@
       <c r="E91" t="n">
         <v>0.02777777777777778</v>
       </c>
+      <c r="F91" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2364,6 +2635,9 @@
       <c r="E92" t="n">
         <v>1.510263929618768</v>
       </c>
+      <c r="F92" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2385,6 +2659,9 @@
       <c r="E93" t="n">
         <v>1.618181818181818</v>
       </c>
+      <c r="F93" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2406,6 +2683,9 @@
       <c r="E94" t="n">
         <v>2.181818181818182</v>
       </c>
+      <c r="F94" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2427,6 +2707,9 @@
       <c r="E95" t="n">
         <v>1.954545454545455</v>
       </c>
+      <c r="F95" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2448,6 +2731,9 @@
       <c r="E96" t="n">
         <v>0.5</v>
       </c>
+      <c r="F96" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2469,6 +2755,9 @@
       <c r="E97" t="n">
         <v>0.1590909090909091</v>
       </c>
+      <c r="F97" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2490,6 +2779,9 @@
       <c r="E98" t="n">
         <v>0.02272727272727273</v>
       </c>
+      <c r="F98" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2511,6 +2803,9 @@
       <c r="E99" t="n">
         <v>0</v>
       </c>
+      <c r="F99" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2532,6 +2827,9 @@
       <c r="E100" t="n">
         <v>0</v>
       </c>
+      <c r="F100" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2553,6 +2851,9 @@
       <c r="E101" t="n">
         <v>0</v>
       </c>
+      <c r="F101" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2574,6 +2875,9 @@
       <c r="E102" t="n">
         <v>3.965188552801492</v>
       </c>
+      <c r="F102" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2595,6 +2899,9 @@
       <c r="E103" t="n">
         <v>0.5916666666666667</v>
       </c>
+      <c r="F103" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2616,6 +2923,9 @@
       <c r="E104" t="n">
         <v>1.479166666666667</v>
       </c>
+      <c r="F104" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2637,6 +2947,9 @@
       <c r="E105" t="n">
         <v>0.4791666666666667</v>
       </c>
+      <c r="F105" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2658,6 +2971,9 @@
       <c r="E106" t="n">
         <v>0.1458333333333333</v>
       </c>
+      <c r="F106" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2679,6 +2995,9 @@
       <c r="E107" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="F107" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2700,6 +3019,9 @@
       <c r="E108" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="F108" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2721,6 +3043,9 @@
       <c r="E109" t="n">
         <v>0.04166666666666666</v>
       </c>
+      <c r="F109" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2742,6 +3067,9 @@
       <c r="E110" t="n">
         <v>0.08333333333333333</v>
       </c>
+      <c r="F110" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2763,6 +3091,9 @@
       <c r="E111" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="F111" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2784,6 +3115,9 @@
       <c r="E112" t="n">
         <v>11.86968594785421</v>
       </c>
+      <c r="F112" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2805,6 +3139,9 @@
       <c r="E113" t="n">
         <v>1.233333333333333</v>
       </c>
+      <c r="F113" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2826,6 +3163,9 @@
       <c r="E114" t="n">
         <v>1.111111111111111</v>
       </c>
+      <c r="F114" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2847,6 +3187,9 @@
       <c r="E115" t="n">
         <v>1.805555555555556</v>
       </c>
+      <c r="F115" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2868,6 +3211,9 @@
       <c r="E116" t="n">
         <v>2.527777777777778</v>
       </c>
+      <c r="F116" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2889,6 +3235,9 @@
       <c r="E117" t="n">
         <v>1.194444444444444</v>
       </c>
+      <c r="F117" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2910,6 +3259,9 @@
       <c r="E118" t="n">
         <v>0.4722222222222222</v>
       </c>
+      <c r="F118" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2931,6 +3283,9 @@
       <c r="E119" t="n">
         <v>0.25</v>
       </c>
+      <c r="F119" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2952,6 +3307,9 @@
       <c r="E120" t="n">
         <v>0</v>
       </c>
+      <c r="F120" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2973,6 +3331,9 @@
       <c r="E121" t="n">
         <v>0.02777777777777778</v>
       </c>
+      <c r="F121" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2994,6 +3355,9 @@
       <c r="E122" t="n">
         <v>4.535510090774358</v>
       </c>
+      <c r="F122" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3015,6 +3379,9 @@
       <c r="E123" t="n">
         <v>10.62424242424242</v>
       </c>
+      <c r="F123" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3036,6 +3403,9 @@
       <c r="E124" t="n">
         <v>0</v>
       </c>
+      <c r="F124" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3057,6 +3427,9 @@
       <c r="E125" t="n">
         <v>0</v>
       </c>
+      <c r="F125" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3078,6 +3451,9 @@
       <c r="E126" t="n">
         <v>0</v>
       </c>
+      <c r="F126" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3099,6 +3475,9 @@
       <c r="E127" t="n">
         <v>0.2708333333333333</v>
       </c>
+      <c r="F127" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3120,6 +3499,9 @@
       <c r="E128" t="n">
         <v>0.5625</v>
       </c>
+      <c r="F128" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3141,6 +3523,9 @@
       <c r="E129" t="n">
         <v>0.2083333333333333</v>
       </c>
+      <c r="F129" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3162,6 +3547,9 @@
       <c r="E130" t="n">
         <v>0.08333333333333333</v>
       </c>
+      <c r="F130" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3183,6 +3571,9 @@
       <c r="E131" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="F131" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3204,6 +3595,9 @@
       <c r="E132" t="n">
         <v>3.883097600446879</v>
       </c>
+      <c r="F132" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3225,6 +3619,9 @@
       <c r="E133" t="n">
         <v>1</v>
       </c>
+      <c r="F133" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3246,6 +3643,9 @@
       <c r="E134" t="n">
         <v>0</v>
       </c>
+      <c r="F134" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3267,6 +3667,9 @@
       <c r="E135" t="n">
         <v>0</v>
       </c>
+      <c r="F135" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3288,6 +3691,9 @@
       <c r="E136" t="n">
         <v>0</v>
       </c>
+      <c r="F136" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3309,6 +3715,9 @@
       <c r="E137" t="n">
         <v>0.4038461538461539</v>
       </c>
+      <c r="F137" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3330,6 +3739,9 @@
       <c r="E138" t="n">
         <v>0.07692307692307693</v>
       </c>
+      <c r="F138" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3351,6 +3763,9 @@
       <c r="E139" t="n">
         <v>0.3846153846153846</v>
       </c>
+      <c r="F139" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3372,6 +3787,9 @@
       <c r="E140" t="n">
         <v>0.5192307692307693</v>
       </c>
+      <c r="F140" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3393,6 +3811,9 @@
       <c r="E141" t="n">
         <v>0.7692307692307693</v>
       </c>
+      <c r="F141" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3414,6 +3835,9 @@
       <c r="E142" t="n">
         <v>2.777777777777779</v>
       </c>
+      <c r="F142" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3435,6 +3859,9 @@
       <c r="E143" t="n">
         <v>0.8888888888888888</v>
       </c>
+      <c r="F143" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3456,6 +3883,9 @@
       <c r="E144" t="n">
         <v>1.583333333333333</v>
       </c>
+      <c r="F144" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3477,6 +3907,9 @@
       <c r="E145" t="n">
         <v>1.972222222222222</v>
       </c>
+      <c r="F145" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3498,6 +3931,9 @@
       <c r="E146" t="n">
         <v>0.9166666666666666</v>
       </c>
+      <c r="F146" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3519,6 +3955,9 @@
       <c r="E147" t="n">
         <v>0.25</v>
       </c>
+      <c r="F147" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3540,6 +3979,9 @@
       <c r="E148" t="n">
         <v>0</v>
       </c>
+      <c r="F148" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3561,6 +4003,9 @@
       <c r="E149" t="n">
         <v>0.02777777777777778</v>
       </c>
+      <c r="F149" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3582,6 +4027,9 @@
       <c r="E150" t="n">
         <v>0</v>
       </c>
+      <c r="F150" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3603,6 +4051,9 @@
       <c r="E151" t="n">
         <v>0</v>
       </c>
+      <c r="F151" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3624,6 +4075,9 @@
       <c r="E152" t="n">
         <v>0.7490636704119851</v>
       </c>
+      <c r="F152" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3645,6 +4099,9 @@
       <c r="E153" t="n">
         <v>0.2222222222222222</v>
       </c>
+      <c r="F153" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3666,6 +4123,9 @@
       <c r="E154" t="n">
         <v>0.75</v>
       </c>
+      <c r="F154" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3687,6 +4147,9 @@
       <c r="E155" t="n">
         <v>1.472222222222222</v>
       </c>
+      <c r="F155" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3708,6 +4171,9 @@
       <c r="E156" t="n">
         <v>0.4166666666666667</v>
       </c>
+      <c r="F156" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3729,6 +4195,9 @@
       <c r="E157" t="n">
         <v>0.2777777777777778</v>
       </c>
+      <c r="F157" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3750,6 +4219,9 @@
       <c r="E158" t="n">
         <v>0.25</v>
       </c>
+      <c r="F158" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3771,6 +4243,9 @@
       <c r="E159" t="n">
         <v>0.08333333333333333</v>
       </c>
+      <c r="F159" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3792,6 +4267,9 @@
       <c r="E160" t="n">
         <v>0</v>
       </c>
+      <c r="F160" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3813,6 +4291,9 @@
       <c r="E161" t="n">
         <v>0.1388888888888889</v>
       </c>
+      <c r="F161" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3834,6 +4315,9 @@
       <c r="E162" t="n">
         <v>4.226918798665183</v>
       </c>
+      <c r="F162" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3855,6 +4339,9 @@
       <c r="E163" t="n">
         <v>0.125</v>
       </c>
+      <c r="F163" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3876,6 +4363,9 @@
       <c r="E164" t="n">
         <v>1.40625</v>
       </c>
+      <c r="F164" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3897,6 +4387,9 @@
       <c r="E165" t="n">
         <v>0.84375</v>
       </c>
+      <c r="F165" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3918,6 +4411,9 @@
       <c r="E166" t="n">
         <v>0.71875</v>
       </c>
+      <c r="F166" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3939,6 +4435,9 @@
       <c r="E167" t="n">
         <v>0.21875</v>
       </c>
+      <c r="F167" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3960,6 +4459,9 @@
       <c r="E168" t="n">
         <v>0</v>
       </c>
+      <c r="F168" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3981,6 +4483,9 @@
       <c r="E169" t="n">
         <v>0.03125</v>
       </c>
+      <c r="F169" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4002,6 +4507,9 @@
       <c r="E170" t="n">
         <v>0.09375</v>
       </c>
+      <c r="F170" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4023,6 +4531,9 @@
       <c r="E171" t="n">
         <v>0.09375</v>
       </c>
+      <c r="F171" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4044,6 +4555,9 @@
       <c r="E172" t="n">
         <v>2.71503069458366</v>
       </c>
+      <c r="F172" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4065,6 +4579,9 @@
       <c r="E173" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="F173" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4086,6 +4603,9 @@
       <c r="E174" t="n">
         <v>0.03571428571428571</v>
       </c>
+      <c r="F174" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4107,6 +4627,9 @@
       <c r="E175" t="n">
         <v>0</v>
       </c>
+      <c r="F175" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4128,6 +4651,9 @@
       <c r="E176" t="n">
         <v>0</v>
       </c>
+      <c r="F176" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4149,6 +4675,9 @@
       <c r="E177" t="n">
         <v>0</v>
       </c>
+      <c r="F177" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4170,6 +4699,9 @@
       <c r="E178" t="n">
         <v>0</v>
       </c>
+      <c r="F178" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4191,6 +4723,9 @@
       <c r="E179" t="n">
         <v>0</v>
       </c>
+      <c r="F179" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4212,6 +4747,9 @@
       <c r="E180" t="n">
         <v>0</v>
       </c>
+      <c r="F180" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4233,6 +4771,9 @@
       <c r="E181" t="n">
         <v>0</v>
       </c>
+      <c r="F181" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4254,6 +4795,9 @@
       <c r="E182" t="n">
         <v>0.9523809523809524</v>
       </c>
+      <c r="F182" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4275,6 +4819,9 @@
       <c r="E183" t="n">
         <v>1</v>
       </c>
+      <c r="F183" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4296,6 +4843,9 @@
       <c r="E184" t="n">
         <v>3.535714285714286</v>
       </c>
+      <c r="F184" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4317,6 +4867,9 @@
       <c r="E185" t="n">
         <v>4.142857142857143</v>
       </c>
+      <c r="F185" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4338,6 +4891,9 @@
       <c r="E186" t="n">
         <v>2.25</v>
       </c>
+      <c r="F186" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4359,6 +4915,9 @@
       <c r="E187" t="n">
         <v>0.03571428571428571</v>
       </c>
+      <c r="F187" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4380,6 +4939,9 @@
       <c r="E188" t="n">
         <v>0</v>
       </c>
+      <c r="F188" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4401,6 +4963,9 @@
       <c r="E189" t="n">
         <v>0</v>
       </c>
+      <c r="F189" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4422,6 +4987,9 @@
       <c r="E190" t="n">
         <v>0</v>
       </c>
+      <c r="F190" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4443,6 +5011,9 @@
       <c r="E191" t="n">
         <v>0</v>
       </c>
+      <c r="F191" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4464,6 +5035,9 @@
       <c r="E192" t="n">
         <v>4.523809523809524</v>
       </c>
+      <c r="F192" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4485,6 +5059,9 @@
       <c r="E193" t="n">
         <v>0</v>
       </c>
+      <c r="F193" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4506,6 +5083,9 @@
       <c r="E194" t="n">
         <v>0.03571428571428571</v>
       </c>
+      <c r="F194" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4527,6 +5107,9 @@
       <c r="E195" t="n">
         <v>0.07142857142857142</v>
       </c>
+      <c r="F195" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4548,6 +5131,9 @@
       <c r="E196" t="n">
         <v>0.03571428571428571</v>
       </c>
+      <c r="F196" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4569,6 +5155,9 @@
       <c r="E197" t="n">
         <v>0.03571428571428571</v>
       </c>
+      <c r="F197" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4590,6 +5179,9 @@
       <c r="E198" t="n">
         <v>0</v>
       </c>
+      <c r="F198" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4611,6 +5203,9 @@
       <c r="E199" t="n">
         <v>0</v>
       </c>
+      <c r="F199" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4632,6 +5227,9 @@
       <c r="E200" t="n">
         <v>0.07142857142857142</v>
       </c>
+      <c r="F200" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4653,6 +5251,9 @@
       <c r="E201" t="n">
         <v>0.03571428571428571</v>
       </c>
+      <c r="F201" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4674,6 +5275,9 @@
       <c r="E202" t="n">
         <v>2.222990891271763</v>
       </c>
+      <c r="F202" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4695,6 +5299,9 @@
       <c r="E203" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="F203" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4716,6 +5323,9 @@
       <c r="E204" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="F204" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4737,6 +5347,9 @@
       <c r="E205" t="n">
         <v>0.5</v>
       </c>
+      <c r="F205" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4758,6 +5371,9 @@
       <c r="E206" t="n">
         <v>0.5357142857142857</v>
       </c>
+      <c r="F206" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4779,6 +5395,9 @@
       <c r="E207" t="n">
         <v>0.2142857142857143</v>
       </c>
+      <c r="F207" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4800,6 +5419,9 @@
       <c r="E208" t="n">
         <v>0</v>
       </c>
+      <c r="F208" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4821,6 +5443,9 @@
       <c r="E209" t="n">
         <v>0</v>
       </c>
+      <c r="F209" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4842,6 +5467,9 @@
       <c r="E210" t="n">
         <v>0</v>
       </c>
+      <c r="F210" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4863,6 +5491,9 @@
       <c r="E211" t="n">
         <v>0</v>
       </c>
+      <c r="F211" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4884,6 +5515,9 @@
       <c r="E212" t="n">
         <v>1</v>
       </c>
+      <c r="F212" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4905,6 +5539,9 @@
       <c r="E213" t="n">
         <v>0.75</v>
       </c>
+      <c r="F213" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4926,6 +5563,9 @@
       <c r="E214" t="n">
         <v>1.2875</v>
       </c>
+      <c r="F214" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4947,6 +5587,9 @@
       <c r="E215" t="n">
         <v>1.52375</v>
       </c>
+      <c r="F215" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4968,6 +5611,9 @@
       <c r="E216" t="n">
         <v>0.91875</v>
       </c>
+      <c r="F216" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4989,6 +5635,9 @@
       <c r="E217" t="n">
         <v>0.7679558011049723</v>
       </c>
+      <c r="F217" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5010,6 +5659,9 @@
       <c r="E218" t="n">
         <v>0.9375</v>
       </c>
+      <c r="F218" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5031,6 +5683,9 @@
       <c r="E219" t="n">
         <v>0.4375</v>
       </c>
+      <c r="F219" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5052,6 +5707,9 @@
       <c r="E220" t="n">
         <v>0.09375</v>
       </c>
+      <c r="F220" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5073,6 +5731,9 @@
       <c r="E221" t="n">
         <v>0.03125</v>
       </c>
+      <c r="F221" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5094,6 +5755,9 @@
       <c r="E222" t="n">
         <v>1.428571428571429</v>
       </c>
+      <c r="F222" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5115,6 +5779,9 @@
       <c r="E223" t="n">
         <v>1.285714285714286</v>
       </c>
+      <c r="F223" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5136,6 +5803,9 @@
       <c r="E224" t="n">
         <v>5.464285714285714</v>
       </c>
+      <c r="F224" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5157,6 +5827,9 @@
       <c r="E225" t="n">
         <v>1.714285714285714</v>
       </c>
+      <c r="F225" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5178,6 +5851,9 @@
       <c r="E226" t="n">
         <v>1.607142857142857</v>
       </c>
+      <c r="F226" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5199,6 +5875,9 @@
       <c r="E227" t="n">
         <v>0.2142857142857143</v>
       </c>
+      <c r="F227" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5220,6 +5899,9 @@
       <c r="E228" t="n">
         <v>0.25</v>
       </c>
+      <c r="F228" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5241,6 +5923,9 @@
       <c r="E229" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="F229" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5262,6 +5947,9 @@
       <c r="E230" t="n">
         <v>0.5357142857142857</v>
       </c>
+      <c r="F230" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5283,6 +5971,9 @@
       <c r="E231" t="n">
         <v>0.07142857142857142</v>
       </c>
+      <c r="F231" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5304,6 +5995,9 @@
       <c r="E232" t="n">
         <v>0.625</v>
       </c>
+      <c r="F232" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5325,6 +6019,9 @@
       <c r="E233" t="n">
         <v>0.125</v>
       </c>
+      <c r="F233" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5346,6 +6043,9 @@
       <c r="E234" t="n">
         <v>0.15625</v>
       </c>
+      <c r="F234" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5367,6 +6067,9 @@
       <c r="E235" t="n">
         <v>1</v>
       </c>
+      <c r="F235" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5388,6 +6091,9 @@
       <c r="E236" t="n">
         <v>0.6875</v>
       </c>
+      <c r="F236" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5409,6 +6115,9 @@
       <c r="E237" t="n">
         <v>0.65625</v>
       </c>
+      <c r="F237" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5430,6 +6139,9 @@
       <c r="E238" t="n">
         <v>0.5</v>
       </c>
+      <c r="F238" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5451,6 +6163,9 @@
       <c r="E239" t="n">
         <v>0.5</v>
       </c>
+      <c r="F239" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5472,6 +6187,9 @@
       <c r="E240" t="n">
         <v>0.40625</v>
       </c>
+      <c r="F240" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5493,6 +6211,9 @@
       <c r="E241" t="n">
         <v>0.21875</v>
       </c>
+      <c r="F241" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5514,6 +6235,9 @@
       <c r="E242" t="n">
         <v>3.35136039250669</v>
       </c>
+      <c r="F242" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5535,6 +6259,9 @@
       <c r="E243" t="n">
         <v>0</v>
       </c>
+      <c r="F243" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5556,6 +6283,9 @@
       <c r="E244" t="n">
         <v>0.9375</v>
       </c>
+      <c r="F244" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5577,6 +6307,9 @@
       <c r="E245" t="n">
         <v>0.59375</v>
       </c>
+      <c r="F245" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5598,6 +6331,9 @@
       <c r="E246" t="n">
         <v>0.09375</v>
       </c>
+      <c r="F246" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5619,6 +6355,9 @@
       <c r="E247" t="n">
         <v>0.3125</v>
       </c>
+      <c r="F247" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5640,6 +6379,9 @@
       <c r="E248" t="n">
         <v>0.5</v>
       </c>
+      <c r="F248" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5661,6 +6403,9 @@
       <c r="E249" t="n">
         <v>0.1875</v>
       </c>
+      <c r="F249" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5682,6 +6427,9 @@
       <c r="E250" t="n">
         <v>0.09375</v>
       </c>
+      <c r="F250" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5703,6 +6451,9 @@
       <c r="E251" t="n">
         <v>0.03125</v>
       </c>
+      <c r="F251" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5724,6 +6475,9 @@
       <c r="E252" t="n">
         <v>0.4166666666666667</v>
       </c>
+      <c r="F252" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5745,6 +6499,9 @@
       <c r="E253" t="n">
         <v>0.625</v>
       </c>
+      <c r="F253" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5766,6 +6523,9 @@
       <c r="E254" t="n">
         <v>0.5625</v>
       </c>
+      <c r="F254" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5787,6 +6547,9 @@
       <c r="E255" t="n">
         <v>0.34375</v>
       </c>
+      <c r="F255" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5808,6 +6571,9 @@
       <c r="E256" t="n">
         <v>0.3125</v>
       </c>
+      <c r="F256" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -5829,6 +6595,9 @@
       <c r="E257" t="n">
         <v>0</v>
       </c>
+      <c r="F257" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -5850,6 +6619,9 @@
       <c r="E258" t="n">
         <v>0.15625</v>
       </c>
+      <c r="F258" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -5871,6 +6643,9 @@
       <c r="E259" t="n">
         <v>0.40625</v>
       </c>
+      <c r="F259" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -5892,6 +6667,9 @@
       <c r="E260" t="n">
         <v>0.34375</v>
       </c>
+      <c r="F260" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -5913,6 +6691,9 @@
       <c r="E261" t="n">
         <v>0.09375</v>
       </c>
+      <c r="F261" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -5934,6 +6715,9 @@
       <c r="E262" t="n">
         <v>7.954055379536277</v>
       </c>
+      <c r="F262" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -5955,6 +6739,9 @@
       <c r="E263" t="n">
         <v>2.444444444444445</v>
       </c>
+      <c r="F263" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -5976,6 +6763,9 @@
       <c r="E264" t="n">
         <v>2.055555555555555</v>
       </c>
+      <c r="F264" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -5997,6 +6787,9 @@
       <c r="E265" t="n">
         <v>1.75</v>
       </c>
+      <c r="F265" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6018,6 +6811,9 @@
       <c r="E266" t="n">
         <v>1.583333333333333</v>
       </c>
+      <c r="F266" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6039,6 +6835,9 @@
       <c r="E267" t="n">
         <v>1.277777777777778</v>
       </c>
+      <c r="F267" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6060,6 +6859,9 @@
       <c r="E268" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="F268" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6081,6 +6883,9 @@
       <c r="E269" t="n">
         <v>0.1944444444444444</v>
       </c>
+      <c r="F269" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6102,6 +6907,9 @@
       <c r="E270" t="n">
         <v>0</v>
       </c>
+      <c r="F270" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6123,6 +6931,9 @@
       <c r="E271" t="n">
         <v>0.05555555555555555</v>
       </c>
+      <c r="F271" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6144,6 +6955,9 @@
       <c r="E272" t="n">
         <v>2.711864406779661</v>
       </c>
+      <c r="F272" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6165,6 +6979,9 @@
       <c r="E273" t="n">
         <v>1.25</v>
       </c>
+      <c r="F273" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6186,6 +7003,9 @@
       <c r="E274" t="n">
         <v>0.5625</v>
       </c>
+      <c r="F274" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6207,6 +7027,9 @@
       <c r="E275" t="n">
         <v>0.53125</v>
       </c>
+      <c r="F275" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6228,6 +7051,9 @@
       <c r="E276" t="n">
         <v>0.34375</v>
       </c>
+      <c r="F276" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6249,6 +7075,9 @@
       <c r="E277" t="n">
         <v>0.15625</v>
       </c>
+      <c r="F277" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6270,6 +7099,9 @@
       <c r="E278" t="n">
         <v>0.03125</v>
       </c>
+      <c r="F278" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6291,6 +7123,9 @@
       <c r="E279" t="n">
         <v>0</v>
       </c>
+      <c r="F279" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6312,6 +7147,9 @@
       <c r="E280" t="n">
         <v>0.0625</v>
       </c>
+      <c r="F280" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6333,6 +7171,9 @@
       <c r="E281" t="n">
         <v>0</v>
       </c>
+      <c r="F281" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6354,6 +7195,9 @@
       <c r="E282" t="n">
         <v>0</v>
       </c>
+      <c r="F282" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6375,6 +7219,9 @@
       <c r="E283" t="n">
         <v>0.25</v>
       </c>
+      <c r="F283" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6396,6 +7243,9 @@
       <c r="E284" t="n">
         <v>0.3125</v>
       </c>
+      <c r="F284" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6417,6 +7267,9 @@
       <c r="E285" t="n">
         <v>0.1875</v>
       </c>
+      <c r="F285" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6438,6 +7291,9 @@
       <c r="E286" t="n">
         <v>0.1875</v>
       </c>
+      <c r="F286" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6459,6 +7315,9 @@
       <c r="E287" t="n">
         <v>0.125</v>
       </c>
+      <c r="F287" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6480,6 +7339,9 @@
       <c r="E288" t="n">
         <v>0.0625</v>
       </c>
+      <c r="F288" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6501,6 +7363,9 @@
       <c r="E289" t="n">
         <v>0</v>
       </c>
+      <c r="F289" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6522,6 +7387,9 @@
       <c r="E290" t="n">
         <v>0</v>
       </c>
+      <c r="F290" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6543,6 +7411,9 @@
       <c r="E291" t="n">
         <v>0</v>
       </c>
+      <c r="F291" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6564,6 +7435,9 @@
       <c r="E292" t="n">
         <v>1.25</v>
       </c>
+      <c r="F292" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6585,6 +7459,9 @@
       <c r="E293" t="n">
         <v>0.125</v>
       </c>
+      <c r="F293" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6606,6 +7483,9 @@
       <c r="E294" t="n">
         <v>0.65625</v>
       </c>
+      <c r="F294" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6627,6 +7507,9 @@
       <c r="E295" t="n">
         <v>0.4375</v>
       </c>
+      <c r="F295" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6648,6 +7531,9 @@
       <c r="E296" t="n">
         <v>0.40625</v>
       </c>
+      <c r="F296" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6669,6 +7555,9 @@
       <c r="E297" t="n">
         <v>0.3125</v>
       </c>
+      <c r="F297" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6690,6 +7579,9 @@
       <c r="E298" t="n">
         <v>0.28125</v>
       </c>
+      <c r="F298" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6711,6 +7603,9 @@
       <c r="E299" t="n">
         <v>0.25</v>
       </c>
+      <c r="F299" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6732,6 +7627,9 @@
       <c r="E300" t="n">
         <v>0.25</v>
       </c>
+      <c r="F300" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6752,6 +7650,9 @@
       </c>
       <c r="E301" t="n">
         <v>0.0625</v>
+      </c>
+      <c r="F301" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/results_it/ターザン_disease_data.xlsx
+++ b/results_it/ターザン_disease_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7655,6 +7655,246 @@
         <v>39</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>貯蔵調査</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="F302" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>収穫日</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="F303" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>5月下旬</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.34375</v>
+      </c>
+      <c r="F304" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>5月上旬</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F305" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>4月下旬</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="F306" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>4月上旬</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F307" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>3月下旬</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F308" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>3月上旬</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="F309" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>2月下旬</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="F310" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ターザン</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2月上旬</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="F311" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results_it/ターザン_disease_data.xlsx
+++ b/results_it/ターザン_disease_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
